--- a/data/pca/factorExposure/factorExposure_2015-11-25.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-11-25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01714462027913318</v>
+        <v>0.01385735749376022</v>
       </c>
       <c r="C2">
-        <v>-0.03486079930014842</v>
+        <v>-0.03301698552219841</v>
       </c>
       <c r="D2">
-        <v>0.08946083116477449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.1226791872817495</v>
+      </c>
+      <c r="E2">
+        <v>-0.06767287968172124</v>
+      </c>
+      <c r="F2">
+        <v>-0.02508436780865731</v>
+      </c>
+      <c r="G2">
+        <v>-0.0708393351387457</v>
+      </c>
+      <c r="H2">
+        <v>-0.09861749940580009</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.01815592010190371</v>
+        <v>0.01052764432418015</v>
       </c>
       <c r="C3">
-        <v>-0.05285555917488217</v>
+        <v>-0.03775259214300455</v>
       </c>
       <c r="D3">
-        <v>0.120552228237465</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.07271383400539413</v>
+      </c>
+      <c r="E3">
+        <v>-0.05037594508417256</v>
+      </c>
+      <c r="F3">
+        <v>-0.04325115890196084</v>
+      </c>
+      <c r="G3">
+        <v>-0.09572460634587006</v>
+      </c>
+      <c r="H3">
+        <v>-0.01362155303852896</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.05449170414769643</v>
+        <v>0.05313906511458153</v>
       </c>
       <c r="C4">
-        <v>-0.04074450637281992</v>
+        <v>-0.0635611802166865</v>
       </c>
       <c r="D4">
-        <v>0.1297273560863722</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.1462796918366836</v>
+      </c>
+      <c r="E4">
+        <v>-0.05177636555585926</v>
+      </c>
+      <c r="F4">
+        <v>-0.02024104696852879</v>
+      </c>
+      <c r="G4">
+        <v>0.03776872165347037</v>
+      </c>
+      <c r="H4">
+        <v>0.01756304812048385</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.04362234577870574</v>
+        <v>0.03926401490949664</v>
       </c>
       <c r="C6">
-        <v>-0.009796835352738549</v>
+        <v>-0.02839889188394604</v>
       </c>
       <c r="D6">
-        <v>0.1351311891706819</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.1326556657954639</v>
+      </c>
+      <c r="E6">
+        <v>-0.02932448044647954</v>
+      </c>
+      <c r="F6">
+        <v>-0.0180276647517645</v>
+      </c>
+      <c r="G6">
+        <v>-0.01007488895164247</v>
+      </c>
+      <c r="H6">
+        <v>-0.02100402208931298</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02238054816027819</v>
+        <v>0.01395441047573995</v>
       </c>
       <c r="C7">
-        <v>-0.01943294682823225</v>
+        <v>-0.03135272423586943</v>
       </c>
       <c r="D7">
-        <v>0.09706508300032761</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.09511730693629854</v>
+      </c>
+      <c r="E7">
+        <v>-0.02956746526006866</v>
+      </c>
+      <c r="F7">
+        <v>-0.01968749422751738</v>
+      </c>
+      <c r="G7">
+        <v>0.001744666203080543</v>
+      </c>
+      <c r="H7">
+        <v>-0.1177161879800651</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01119423142410246</v>
+        <v>0.006668277710334219</v>
       </c>
       <c r="C8">
-        <v>-0.030412340222991</v>
+        <v>-0.03771286102718724</v>
       </c>
       <c r="D8">
-        <v>0.05539874616512232</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.07305228667284082</v>
+      </c>
+      <c r="E8">
+        <v>-0.03365197123247667</v>
+      </c>
+      <c r="F8">
+        <v>-0.04129136456538404</v>
+      </c>
+      <c r="G8">
+        <v>-0.01543704826313592</v>
+      </c>
+      <c r="H8">
+        <v>-0.04677461061877613</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.04441236218574241</v>
+        <v>0.04176847452507387</v>
       </c>
       <c r="C9">
-        <v>-0.04004667272542174</v>
+        <v>-0.05973413564473267</v>
       </c>
       <c r="D9">
-        <v>0.1122238247424013</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.1233998461669607</v>
+      </c>
+      <c r="E9">
+        <v>-0.03732874677954381</v>
+      </c>
+      <c r="F9">
+        <v>-0.00272555254339239</v>
+      </c>
+      <c r="G9">
+        <v>0.02754928972589241</v>
+      </c>
+      <c r="H9">
+        <v>-0.01026140821361405</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.09290437301620581</v>
+        <v>0.1402750567482748</v>
       </c>
       <c r="C10">
-        <v>0.1939276440183668</v>
+        <v>0.1864441980796598</v>
       </c>
       <c r="D10">
-        <v>0.002371556021591449</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.002274769331013735</v>
+      </c>
+      <c r="E10">
+        <v>-0.04304445930382898</v>
+      </c>
+      <c r="F10">
+        <v>-0.0232896103259982</v>
+      </c>
+      <c r="G10">
+        <v>0.03426886081710161</v>
+      </c>
+      <c r="H10">
+        <v>0.004240288346764513</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03453818224515171</v>
+        <v>0.02767745010477323</v>
       </c>
       <c r="C11">
-        <v>-0.03868485833803838</v>
+        <v>-0.04485448241359174</v>
       </c>
       <c r="D11">
-        <v>0.05626397236223648</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.05801624440596886</v>
+      </c>
+      <c r="E11">
+        <v>0.005292687280817354</v>
+      </c>
+      <c r="F11">
+        <v>-0.0007238426963725735</v>
+      </c>
+      <c r="G11">
+        <v>-0.001691290577807038</v>
+      </c>
+      <c r="H11">
+        <v>-0.04966486619625422</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04111005945071388</v>
+        <v>0.0330842827207997</v>
       </c>
       <c r="C12">
-        <v>-0.04008141003007891</v>
+        <v>-0.04617997122278643</v>
       </c>
       <c r="D12">
-        <v>0.05955230216716229</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05761125974699063</v>
+      </c>
+      <c r="E12">
+        <v>-0.002006856029574046</v>
+      </c>
+      <c r="F12">
+        <v>0.006962941881252522</v>
+      </c>
+      <c r="G12">
+        <v>-0.001755629553883134</v>
+      </c>
+      <c r="H12">
+        <v>-0.06165080522798901</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01895549365668466</v>
+        <v>0.01766965181680779</v>
       </c>
       <c r="C13">
-        <v>-0.03180027965546968</v>
+        <v>-0.03789565654640589</v>
       </c>
       <c r="D13">
-        <v>0.1245748075809053</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.1439286579127762</v>
+      </c>
+      <c r="E13">
+        <v>-0.04996073091110372</v>
+      </c>
+      <c r="F13">
+        <v>-0.03714945914296086</v>
+      </c>
+      <c r="G13">
+        <v>-0.008803555441919785</v>
+      </c>
+      <c r="H13">
+        <v>-0.1058837067903229</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01073560573534063</v>
+        <v>0.00863076948672716</v>
       </c>
       <c r="C14">
-        <v>-0.01819575872419033</v>
+        <v>-0.02428448000434145</v>
       </c>
       <c r="D14">
-        <v>0.07839490021494135</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.08739315971715642</v>
+      </c>
+      <c r="E14">
+        <v>-0.03597548441047997</v>
+      </c>
+      <c r="F14">
+        <v>0.007469907280660369</v>
+      </c>
+      <c r="G14">
+        <v>-0.0120578380243945</v>
+      </c>
+      <c r="H14">
+        <v>-0.1107114060795654</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.00180946251352453</v>
+        <v>0.001654477060771961</v>
       </c>
       <c r="C15">
-        <v>-0.0004837692166273681</v>
+        <v>-0.01004129685970366</v>
       </c>
       <c r="D15">
-        <v>0.003329527726857295</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.0326083251670848</v>
+      </c>
+      <c r="E15">
+        <v>-0.006567231397286301</v>
+      </c>
+      <c r="F15">
+        <v>0.0009015896131600692</v>
+      </c>
+      <c r="G15">
+        <v>-0.01014459148084559</v>
+      </c>
+      <c r="H15">
+        <v>-0.01117435944324353</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.03476467064710603</v>
+        <v>0.02838177487482844</v>
       </c>
       <c r="C16">
-        <v>-0.04095612058221028</v>
+        <v>-0.04501919410211335</v>
       </c>
       <c r="D16">
-        <v>0.06642130779614434</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06204284785189632</v>
+      </c>
+      <c r="E16">
+        <v>-0.008447417501122208</v>
+      </c>
+      <c r="F16">
+        <v>0.006939382222718671</v>
+      </c>
+      <c r="G16">
+        <v>-0.002333492419049771</v>
+      </c>
+      <c r="H16">
+        <v>-0.06226813460474312</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.01041438292422678</v>
+        <v>0.006823379551665297</v>
       </c>
       <c r="C19">
-        <v>-0.02489383541052653</v>
+        <v>-0.02058835037725459</v>
       </c>
       <c r="D19">
-        <v>0.1701078063439051</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.1247890460460902</v>
+      </c>
+      <c r="E19">
+        <v>-0.06257532777684446</v>
+      </c>
+      <c r="F19">
+        <v>0.005293047124431625</v>
+      </c>
+      <c r="G19">
+        <v>-0.02105786036583297</v>
+      </c>
+      <c r="H19">
+        <v>-0.06650790666155033</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.01952688693036878</v>
+        <v>0.01552680926086751</v>
       </c>
       <c r="C20">
-        <v>-0.02464403251635848</v>
+        <v>-0.03307704278425017</v>
       </c>
       <c r="D20">
-        <v>0.08694609577021017</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.0986397918786142</v>
+      </c>
+      <c r="E20">
+        <v>-0.05002916156973669</v>
+      </c>
+      <c r="F20">
+        <v>0.002670923092766908</v>
+      </c>
+      <c r="G20">
+        <v>-0.00104546661305864</v>
+      </c>
+      <c r="H20">
+        <v>-0.06274115270841724</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.0140972151188139</v>
+        <v>0.01305244749545816</v>
       </c>
       <c r="C21">
-        <v>-0.03393333390158034</v>
+        <v>-0.03762674413141599</v>
       </c>
       <c r="D21">
-        <v>0.1281006359116366</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.1382772782310918</v>
+      </c>
+      <c r="E21">
+        <v>-0.08801364841523826</v>
+      </c>
+      <c r="F21">
+        <v>-0.002945175224052251</v>
+      </c>
+      <c r="G21">
+        <v>0.02406176049824824</v>
+      </c>
+      <c r="H21">
+        <v>-0.12629236525131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.009003846808730093</v>
+        <v>0.005464976790566952</v>
       </c>
       <c r="C22">
-        <v>-0.02989022682229325</v>
+        <v>-0.04172126279565865</v>
       </c>
       <c r="D22">
-        <v>0.08676730227687433</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.1449856861695112</v>
+      </c>
+      <c r="E22">
+        <v>-0.02790970297134244</v>
+      </c>
+      <c r="F22">
+        <v>-0.08931577610070331</v>
+      </c>
+      <c r="G22">
+        <v>-0.07308877345413661</v>
+      </c>
+      <c r="H22">
+        <v>0.05536003600703709</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.009127153204534836</v>
+        <v>0.00556974048940723</v>
       </c>
       <c r="C23">
-        <v>-0.02981758590721417</v>
+        <v>-0.04219191598747272</v>
       </c>
       <c r="D23">
-        <v>0.08606467813808602</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.144441374517835</v>
+      </c>
+      <c r="E23">
+        <v>-0.02820197687112564</v>
+      </c>
+      <c r="F23">
+        <v>-0.08928749931628592</v>
+      </c>
+      <c r="G23">
+        <v>-0.0721467096128619</v>
+      </c>
+      <c r="H23">
+        <v>0.05550373826115124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03826233228728631</v>
+        <v>0.02996113875274646</v>
       </c>
       <c r="C24">
-        <v>-0.049784151066947</v>
+        <v>-0.0565475472400354</v>
       </c>
       <c r="D24">
-        <v>0.06437952403487418</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.06536684404320493</v>
+      </c>
+      <c r="E24">
+        <v>-0.0121661084284608</v>
+      </c>
+      <c r="F24">
+        <v>0.005039430705489806</v>
+      </c>
+      <c r="G24">
+        <v>0.005849984260238717</v>
+      </c>
+      <c r="H24">
+        <v>-0.07342613047252831</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.04186032459310714</v>
+        <v>0.03452136583490548</v>
       </c>
       <c r="C25">
-        <v>-0.04745397108176434</v>
+        <v>-0.05377016985274646</v>
       </c>
       <c r="D25">
-        <v>0.06394910221828927</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.06250778148764699</v>
+      </c>
+      <c r="E25">
+        <v>-0.01258582891003815</v>
+      </c>
+      <c r="F25">
+        <v>-0.001652865057890027</v>
+      </c>
+      <c r="G25">
+        <v>0.005733649989532088</v>
+      </c>
+      <c r="H25">
+        <v>-0.05637596511658644</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.02046531389255659</v>
+        <v>0.01834875322319635</v>
       </c>
       <c r="C26">
-        <v>-0.008707927491326962</v>
+        <v>-0.0177261860372233</v>
       </c>
       <c r="D26">
-        <v>0.05247594443926404</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.06342646871169413</v>
+      </c>
+      <c r="E26">
+        <v>-0.02639006176336924</v>
+      </c>
+      <c r="F26">
+        <v>-0.004302498058497504</v>
+      </c>
+      <c r="G26">
+        <v>-0.007753668496164007</v>
+      </c>
+      <c r="H26">
+        <v>-0.06840425804085373</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1420121542384462</v>
+        <v>0.2002825169265328</v>
       </c>
       <c r="C28">
-        <v>0.2748231437083161</v>
+        <v>0.2503920644236357</v>
       </c>
       <c r="D28">
-        <v>-0.02929125221379139</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01186267950299591</v>
+      </c>
+      <c r="E28">
+        <v>-0.06961164893345877</v>
+      </c>
+      <c r="F28">
+        <v>-0.005311167296339656</v>
+      </c>
+      <c r="G28">
+        <v>0.06490508354568576</v>
+      </c>
+      <c r="H28">
+        <v>-0.01108445679872138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.00703980486027154</v>
+        <v>0.006162048013852146</v>
       </c>
       <c r="C29">
-        <v>-0.01872765556169032</v>
+        <v>-0.02331933676514232</v>
       </c>
       <c r="D29">
-        <v>0.06282460171796511</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.08151462195783114</v>
+      </c>
+      <c r="E29">
+        <v>-0.03168564889901198</v>
+      </c>
+      <c r="F29">
+        <v>-0.008656878915684807</v>
+      </c>
+      <c r="G29">
+        <v>0.006097180646205173</v>
+      </c>
+      <c r="H29">
+        <v>-0.1157383970484386</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.03972148896731635</v>
+        <v>0.04079722415368941</v>
       </c>
       <c r="C30">
-        <v>-0.03881915457834875</v>
+        <v>-0.06091190502281019</v>
       </c>
       <c r="D30">
-        <v>0.1662178510647564</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1787403000103461</v>
+      </c>
+      <c r="E30">
+        <v>-0.01730931908752486</v>
+      </c>
+      <c r="F30">
+        <v>-0.009407311917864199</v>
+      </c>
+      <c r="G30">
+        <v>-0.02427862630082663</v>
+      </c>
+      <c r="H30">
+        <v>-0.01154124236264421</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.06928492538415509</v>
+        <v>0.0551697768981682</v>
       </c>
       <c r="C31">
-        <v>-0.05033353154241724</v>
+        <v>-0.07248762309691094</v>
       </c>
       <c r="D31">
-        <v>0.06777495156959558</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.05581637258678934</v>
+      </c>
+      <c r="E31">
+        <v>-0.02965039214796573</v>
+      </c>
+      <c r="F31">
+        <v>-0.03337499638437402</v>
+      </c>
+      <c r="G31">
+        <v>0.0192413303744486</v>
+      </c>
+      <c r="H31">
+        <v>-0.04584253651664502</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.006663321461918631</v>
+        <v>0.0107083973268329</v>
       </c>
       <c r="C32">
-        <v>-0.01742400574591011</v>
+        <v>-0.01922306226179371</v>
       </c>
       <c r="D32">
-        <v>0.06445331630202064</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.1006585065665952</v>
+      </c>
+      <c r="E32">
+        <v>-0.0882394464509003</v>
+      </c>
+      <c r="F32">
+        <v>-0.01940740713533094</v>
+      </c>
+      <c r="G32">
+        <v>0.02267118711169899</v>
+      </c>
+      <c r="H32">
+        <v>-0.09875623785996092</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.02597367262453082</v>
+        <v>0.02233088572402568</v>
       </c>
       <c r="C33">
-        <v>-0.0278785173685323</v>
+        <v>-0.04346131256490061</v>
       </c>
       <c r="D33">
-        <v>0.1327069319572103</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1318950316066616</v>
+      </c>
+      <c r="E33">
+        <v>-0.04141372837672709</v>
+      </c>
+      <c r="F33">
+        <v>-0.01803476418940626</v>
+      </c>
+      <c r="G33">
+        <v>-0.00376460674825859</v>
+      </c>
+      <c r="H33">
+        <v>-0.07146025646260598</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03600392523955765</v>
+        <v>0.02668165106743012</v>
       </c>
       <c r="C34">
-        <v>-0.06174299764259798</v>
+        <v>-0.0611997810497357</v>
       </c>
       <c r="D34">
-        <v>0.06731846888500506</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.05531926732853683</v>
+      </c>
+      <c r="E34">
+        <v>0.00438917517934777</v>
+      </c>
+      <c r="F34">
+        <v>0.01110676524371217</v>
+      </c>
+      <c r="G34">
+        <v>-0.002425960578081369</v>
+      </c>
+      <c r="H34">
+        <v>-0.07776066024751828</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.0007643033044391072</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.0007581577305486061</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.004845984139522982</v>
+      </c>
+      <c r="E35">
+        <v>-0.0005260426011568456</v>
+      </c>
+      <c r="F35">
+        <v>-0.0001151888635586187</v>
+      </c>
+      <c r="G35">
+        <v>-0.001736230192014471</v>
+      </c>
+      <c r="H35">
+        <v>-0.002632577843422408</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02114012442180527</v>
+        <v>0.01831392525744813</v>
       </c>
       <c r="C36">
-        <v>-0.002918968299691562</v>
+        <v>-0.01466413732255648</v>
       </c>
       <c r="D36">
-        <v>0.07335811359274309</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.07780399819896902</v>
+      </c>
+      <c r="E36">
+        <v>-0.03357098037126722</v>
+      </c>
+      <c r="F36">
+        <v>0.0006106805262197335</v>
+      </c>
+      <c r="G36">
+        <v>0.008640340314856609</v>
+      </c>
+      <c r="H36">
+        <v>-0.06197988709412672</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.02213785250382286</v>
+        <v>0.01964233538417107</v>
       </c>
       <c r="C38">
-        <v>-0.01500415748154119</v>
+        <v>-0.02095325108220667</v>
       </c>
       <c r="D38">
-        <v>0.05170383414914817</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.05875446893681721</v>
+      </c>
+      <c r="E38">
+        <v>-0.03724426071684518</v>
+      </c>
+      <c r="F38">
+        <v>0.00302902475313265</v>
+      </c>
+      <c r="G38">
+        <v>-0.03853869852390986</v>
+      </c>
+      <c r="H38">
+        <v>-0.03928772272284536</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.04103276275010519</v>
+        <v>0.03508593551879963</v>
       </c>
       <c r="C39">
-        <v>-0.05078271189458269</v>
+        <v>-0.06516812968755371</v>
       </c>
       <c r="D39">
-        <v>0.0898552598759142</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1046720781685215</v>
+      </c>
+      <c r="E39">
+        <v>-0.006144292620031647</v>
+      </c>
+      <c r="F39">
+        <v>0.02541210669836238</v>
+      </c>
+      <c r="G39">
+        <v>-0.005024598982186716</v>
+      </c>
+      <c r="H39">
+        <v>-0.09129401370747171</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.02129307991112327</v>
+        <v>0.01367778095904275</v>
       </c>
       <c r="C40">
-        <v>-0.04696415091041985</v>
+        <v>-0.03868620236095097</v>
       </c>
       <c r="D40">
-        <v>0.07640300559248293</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.08445261705457856</v>
+      </c>
+      <c r="E40">
+        <v>-0.06236417574689134</v>
+      </c>
+      <c r="F40">
+        <v>-0.06581353105949701</v>
+      </c>
+      <c r="G40">
+        <v>-0.06397373628129385</v>
+      </c>
+      <c r="H40">
+        <v>-0.1635991126393454</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.02567481388783837</v>
+        <v>0.02352348146177785</v>
       </c>
       <c r="C41">
-        <v>0.005764655775641558</v>
+        <v>-0.008255646135591274</v>
       </c>
       <c r="D41">
-        <v>0.06799533513471136</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.05462316639738593</v>
+      </c>
+      <c r="E41">
+        <v>-0.0523723069146637</v>
+      </c>
+      <c r="F41">
+        <v>-0.004920687459312519</v>
+      </c>
+      <c r="G41">
+        <v>-0.01357912924031212</v>
+      </c>
+      <c r="H41">
+        <v>-0.04827784234252651</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.03096607900287643</v>
+        <v>0.02260970353892368</v>
       </c>
       <c r="C43">
-        <v>-0.005776836493952216</v>
+        <v>-0.01832780914155206</v>
       </c>
       <c r="D43">
-        <v>0.1041777150360566</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.08408615973058772</v>
+      </c>
+      <c r="E43">
+        <v>-0.03288526871792232</v>
+      </c>
+      <c r="F43">
+        <v>-0.004692178505889612</v>
+      </c>
+      <c r="G43">
+        <v>-0.01338108765053655</v>
+      </c>
+      <c r="H43">
+        <v>-0.07239492297334031</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01768319768891799</v>
+        <v>0.01722802175780113</v>
       </c>
       <c r="C44">
-        <v>-0.04902830761997169</v>
+        <v>-0.04374098140567831</v>
       </c>
       <c r="D44">
-        <v>0.07783334921633542</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.09934170987630674</v>
+      </c>
+      <c r="E44">
+        <v>-0.06742591587680062</v>
+      </c>
+      <c r="F44">
+        <v>-0.008949803601174255</v>
+      </c>
+      <c r="G44">
+        <v>-0.005914292915270622</v>
+      </c>
+      <c r="H44">
+        <v>-0.07636690552640148</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02067344587585039</v>
+        <v>0.01565747130530298</v>
       </c>
       <c r="C46">
-        <v>-0.01902381131608494</v>
+        <v>-0.02860360971224628</v>
       </c>
       <c r="D46">
-        <v>0.07377959129384987</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.08737927143120788</v>
+      </c>
+      <c r="E46">
+        <v>-0.03734887995386237</v>
+      </c>
+      <c r="F46">
+        <v>0.01639036777781711</v>
+      </c>
+      <c r="G46">
+        <v>0.01348639462827811</v>
+      </c>
+      <c r="H46">
+        <v>-0.1152886356648364</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09597077529765513</v>
+        <v>0.08157875820747383</v>
       </c>
       <c r="C47">
-        <v>-0.0625436596915773</v>
+        <v>-0.08941617497517025</v>
       </c>
       <c r="D47">
-        <v>0.04688729301002028</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.03360038305058085</v>
+      </c>
+      <c r="E47">
+        <v>-0.03500211465725294</v>
+      </c>
+      <c r="F47">
+        <v>-0.02183027600435464</v>
+      </c>
+      <c r="G47">
+        <v>0.04182116894926301</v>
+      </c>
+      <c r="H47">
+        <v>-0.01511826137421738</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01731292997761877</v>
+        <v>0.01619995233696992</v>
       </c>
       <c r="C48">
-        <v>-0.0135590032900936</v>
+        <v>-0.0197415080739389</v>
       </c>
       <c r="D48">
-        <v>0.06557848559613604</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.07296337776312203</v>
+      </c>
+      <c r="E48">
+        <v>-0.04932912890453094</v>
+      </c>
+      <c r="F48">
+        <v>0.001444788903006668</v>
+      </c>
+      <c r="G48">
+        <v>0.006145536584059405</v>
+      </c>
+      <c r="H48">
+        <v>-0.06691027274419814</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.06413831655647054</v>
+        <v>0.05343621761805044</v>
       </c>
       <c r="C50">
-        <v>-0.05133613590493063</v>
+        <v>-0.0668624834118471</v>
       </c>
       <c r="D50">
-        <v>0.06333432325113991</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.05530945064083988</v>
+      </c>
+      <c r="E50">
+        <v>-0.03949373637261502</v>
+      </c>
+      <c r="F50">
+        <v>-0.04182822097529418</v>
+      </c>
+      <c r="G50">
+        <v>-0.01340924391087508</v>
+      </c>
+      <c r="H50">
+        <v>-0.04585095435768537</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.009050581846828566</v>
+        <v>0.009473963569466781</v>
       </c>
       <c r="C51">
-        <v>-0.01877264835434308</v>
+        <v>-0.0199942031922227</v>
       </c>
       <c r="D51">
-        <v>0.08146059664426804</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.08895496735823918</v>
+      </c>
+      <c r="E51">
+        <v>-0.0133534323428668</v>
+      </c>
+      <c r="F51">
+        <v>0.001000711854007674</v>
+      </c>
+      <c r="G51">
+        <v>-0.01728235806192916</v>
+      </c>
+      <c r="H51">
+        <v>-0.07636591764566467</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.08773816478948833</v>
+        <v>0.0852570388789437</v>
       </c>
       <c r="C53">
-        <v>-0.09245335135855699</v>
+        <v>-0.1026780656884792</v>
       </c>
       <c r="D53">
-        <v>0.01720273558661159</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.01053355832712097</v>
+      </c>
+      <c r="E53">
+        <v>-0.1039812306278927</v>
+      </c>
+      <c r="F53">
+        <v>-0.04681582121891391</v>
+      </c>
+      <c r="G53">
+        <v>0.08836804525261777</v>
+      </c>
+      <c r="H53">
+        <v>-0.009358668882882459</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.03291571665064365</v>
+        <v>0.02573649984369909</v>
       </c>
       <c r="C54">
-        <v>-0.03496642798024073</v>
+        <v>-0.03657348141342872</v>
       </c>
       <c r="D54">
-        <v>0.08815020556623372</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.08691053006461319</v>
+      </c>
+      <c r="E54">
+        <v>-0.04204374174739305</v>
+      </c>
+      <c r="F54">
+        <v>0.01103864974501028</v>
+      </c>
+      <c r="G54">
+        <v>-0.02161106537631412</v>
+      </c>
+      <c r="H54">
+        <v>-0.1165760769950902</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09130635325209223</v>
+        <v>0.08456280220317203</v>
       </c>
       <c r="C55">
-        <v>-0.06281070188750996</v>
+        <v>-0.08139427713357754</v>
       </c>
       <c r="D55">
-        <v>-0.004042593435465844</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.007367004781584982</v>
+      </c>
+      <c r="E55">
+        <v>-0.05908820583141523</v>
+      </c>
+      <c r="F55">
+        <v>-0.04322791613457216</v>
+      </c>
+      <c r="G55">
+        <v>0.04348669539920555</v>
+      </c>
+      <c r="H55">
+        <v>0.003457734766182051</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.139193821136622</v>
+        <v>0.1279567905631004</v>
       </c>
       <c r="C56">
-        <v>-0.09761412027636956</v>
+        <v>-0.1261188890885432</v>
       </c>
       <c r="D56">
-        <v>0.006564211338771949</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.008358831689982029</v>
+      </c>
+      <c r="E56">
+        <v>-0.06245360712407672</v>
+      </c>
+      <c r="F56">
+        <v>-0.03581078073751918</v>
+      </c>
+      <c r="G56">
+        <v>0.04667499504455794</v>
+      </c>
+      <c r="H56">
+        <v>0.007288915562282893</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.01543935520984164</v>
+        <v>0.02444336070145744</v>
       </c>
       <c r="C58">
-        <v>0.01735775537004442</v>
+        <v>-0.01845002893773714</v>
       </c>
       <c r="D58">
-        <v>0.3467255600628879</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.3769401185742262</v>
+      </c>
+      <c r="E58">
+        <v>-0.1931150270166843</v>
+      </c>
+      <c r="F58">
+        <v>-0.1453505384725524</v>
+      </c>
+      <c r="G58">
+        <v>-0.2536448824166008</v>
+      </c>
+      <c r="H58">
+        <v>0.4057263444031765</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1364636142158801</v>
+        <v>0.1781474071842359</v>
       </c>
       <c r="C59">
-        <v>0.1933914948302161</v>
+        <v>0.1676605693327913</v>
       </c>
       <c r="D59">
-        <v>0.0317674089734148</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.05288318893855541</v>
+      </c>
+      <c r="E59">
+        <v>-0.01774895476825081</v>
+      </c>
+      <c r="F59">
+        <v>0.04147306629985884</v>
+      </c>
+      <c r="G59">
+        <v>-0.0005871086519081704</v>
+      </c>
+      <c r="H59">
+        <v>0.02463337859916348</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2473042749836923</v>
+        <v>0.2264698746957888</v>
       </c>
       <c r="C60">
-        <v>-0.05548107262294841</v>
+        <v>-0.1050087602622836</v>
       </c>
       <c r="D60">
-        <v>0.1737791429180583</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.1142966034230088</v>
+      </c>
+      <c r="E60">
+        <v>0.3629606417511472</v>
+      </c>
+      <c r="F60">
+        <v>-0.02551870080122516</v>
+      </c>
+      <c r="G60">
+        <v>0.0324569249447447</v>
+      </c>
+      <c r="H60">
+        <v>0.1158074178290025</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.04786865981439985</v>
+        <v>0.03988884555309406</v>
       </c>
       <c r="C61">
-        <v>-0.0547228277171907</v>
+        <v>-0.06188610476665866</v>
       </c>
       <c r="D61">
-        <v>0.09623664260867359</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.09211540527742529</v>
+      </c>
+      <c r="E61">
+        <v>-0.002121954707716633</v>
+      </c>
+      <c r="F61">
+        <v>0.01601129517661355</v>
+      </c>
+      <c r="G61">
+        <v>0.00719677966843111</v>
+      </c>
+      <c r="H61">
+        <v>-0.07965260243691778</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01788311338674544</v>
+        <v>0.01385856047442487</v>
       </c>
       <c r="C63">
-        <v>-0.02417951717748333</v>
+        <v>-0.03362169347412981</v>
       </c>
       <c r="D63">
-        <v>0.06146779005414371</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.06844624347456557</v>
+      </c>
+      <c r="E63">
+        <v>-0.02959594085971929</v>
+      </c>
+      <c r="F63">
+        <v>-0.0175125793889314</v>
+      </c>
+      <c r="G63">
+        <v>-0.003635488474001257</v>
+      </c>
+      <c r="H63">
+        <v>-0.05492024042899244</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.06103514781962618</v>
+        <v>0.0531352743240817</v>
       </c>
       <c r="C64">
-        <v>-0.06199218793212102</v>
+        <v>-0.08213396378504123</v>
       </c>
       <c r="D64">
-        <v>0.05831966172480652</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.054618788836144</v>
+      </c>
+      <c r="E64">
+        <v>-0.02529711928711456</v>
+      </c>
+      <c r="F64">
+        <v>0.01369557823574647</v>
+      </c>
+      <c r="G64">
+        <v>0.05327785671119856</v>
+      </c>
+      <c r="H64">
+        <v>-0.06383585468395549</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.05045128322435875</v>
+        <v>0.04635629514332652</v>
       </c>
       <c r="C65">
-        <v>-0.001655256188630237</v>
+        <v>-0.02528411403150991</v>
       </c>
       <c r="D65">
-        <v>0.1116571030325031</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.1149922757407859</v>
+      </c>
+      <c r="E65">
+        <v>-0.001660339728226699</v>
+      </c>
+      <c r="F65">
+        <v>-0.01959596025289961</v>
+      </c>
+      <c r="G65">
+        <v>-0.03037373984226827</v>
+      </c>
+      <c r="H65">
+        <v>0.02164739877624446</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04669202148735949</v>
+        <v>0.03960146030489334</v>
       </c>
       <c r="C66">
-        <v>-0.05784828922066636</v>
+        <v>-0.0755257120900085</v>
       </c>
       <c r="D66">
-        <v>0.1111100657123858</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1299555104248694</v>
+      </c>
+      <c r="E66">
+        <v>-0.01233405826216106</v>
+      </c>
+      <c r="F66">
+        <v>0.01062242934566284</v>
+      </c>
+      <c r="G66">
+        <v>-0.01529174843545245</v>
+      </c>
+      <c r="H66">
+        <v>-0.05735965521090032</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.04155990896699666</v>
+        <v>0.0370198619366551</v>
       </c>
       <c r="C67">
-        <v>-0.01974110401113003</v>
+        <v>-0.02684473365393125</v>
       </c>
       <c r="D67">
-        <v>0.02230122050869652</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.01981943318559417</v>
+      </c>
+      <c r="E67">
+        <v>-0.01563318848887991</v>
+      </c>
+      <c r="F67">
+        <v>3.451189802931537e-05</v>
+      </c>
+      <c r="G67">
+        <v>-0.03594673855908787</v>
+      </c>
+      <c r="H67">
+        <v>-0.03721596814872897</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1564153198680683</v>
+        <v>0.1966302702631268</v>
       </c>
       <c r="C68">
-        <v>0.2478588661474635</v>
+        <v>0.199062849085104</v>
       </c>
       <c r="D68">
-        <v>-0.01999881523324622</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01177380816278758</v>
+      </c>
+      <c r="E68">
+        <v>-0.05370949890180692</v>
+      </c>
+      <c r="F68">
+        <v>-0.03061454549700509</v>
+      </c>
+      <c r="G68">
+        <v>-0.01133368541826385</v>
+      </c>
+      <c r="H68">
+        <v>0.001715948211833908</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.08825148649009423</v>
+        <v>0.0746123023585647</v>
       </c>
       <c r="C69">
-        <v>-0.07919820395913113</v>
+        <v>-0.09688331574085118</v>
       </c>
       <c r="D69">
-        <v>0.06569688278242537</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.04655959031923471</v>
+      </c>
+      <c r="E69">
+        <v>-0.02410939012825346</v>
+      </c>
+      <c r="F69">
+        <v>-0.007231203274427681</v>
+      </c>
+      <c r="G69">
+        <v>0.03052701905498148</v>
+      </c>
+      <c r="H69">
+        <v>-0.03270573904199872</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1362324407191562</v>
+        <v>0.1825831212397555</v>
       </c>
       <c r="C71">
-        <v>0.2422141739834028</v>
+        <v>0.2095679231702054</v>
       </c>
       <c r="D71">
-        <v>0.01752272129098684</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.03696191665122597</v>
+      </c>
+      <c r="E71">
+        <v>-0.05254946481347671</v>
+      </c>
+      <c r="F71">
+        <v>-0.03457389636539203</v>
+      </c>
+      <c r="G71">
+        <v>0.01668799615793132</v>
+      </c>
+      <c r="H71">
+        <v>-0.02246023281919207</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.09821858444061572</v>
+        <v>0.09811391220555891</v>
       </c>
       <c r="C72">
-        <v>-0.03721104489204596</v>
+        <v>-0.06973391752935304</v>
       </c>
       <c r="D72">
-        <v>0.08468901300654737</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.09300359102526473</v>
+      </c>
+      <c r="E72">
+        <v>0.03917240130279426</v>
+      </c>
+      <c r="F72">
+        <v>-0.03664439936818197</v>
+      </c>
+      <c r="G72">
+        <v>0.03140032145632496</v>
+      </c>
+      <c r="H72">
+        <v>-0.04057831878046982</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2698366648926046</v>
+        <v>0.2411847352846247</v>
       </c>
       <c r="C73">
-        <v>0.00045552104077404</v>
+        <v>-0.0869631631916578</v>
       </c>
       <c r="D73">
-        <v>0.283010904467556</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.1706310698980745</v>
+      </c>
+      <c r="E73">
+        <v>0.6697989048671767</v>
+      </c>
+      <c r="F73">
+        <v>-0.007741986344233444</v>
+      </c>
+      <c r="G73">
+        <v>0.01351936332316788</v>
+      </c>
+      <c r="H73">
+        <v>0.1555066880851304</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1101321645493066</v>
+        <v>0.0991190685209019</v>
       </c>
       <c r="C74">
-        <v>-0.07054846597558355</v>
+        <v>-0.09084901879030424</v>
       </c>
       <c r="D74">
-        <v>0.01575727735741522</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.003728081782989121</v>
+      </c>
+      <c r="E74">
+        <v>-0.07557242721400381</v>
+      </c>
+      <c r="F74">
+        <v>-0.06348384703994468</v>
+      </c>
+      <c r="G74">
+        <v>0.06055223353393788</v>
+      </c>
+      <c r="H74">
+        <v>0.02718811517916767</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2527955264060081</v>
+        <v>0.2279303216894444</v>
       </c>
       <c r="C75">
-        <v>-0.1188784947582699</v>
+        <v>-0.1673458640919555</v>
       </c>
       <c r="D75">
-        <v>-0.06414935176504739</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.09441564255309033</v>
+      </c>
+      <c r="E75">
+        <v>-0.1039858317591311</v>
+      </c>
+      <c r="F75">
+        <v>-0.004911309926885726</v>
+      </c>
+      <c r="G75">
+        <v>0.054745840240131</v>
+      </c>
+      <c r="H75">
+        <v>0.1162277989299111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1439311487609061</v>
+        <v>0.1271961551119523</v>
       </c>
       <c r="C76">
-        <v>-0.08670739914735924</v>
+        <v>-0.1147918971518757</v>
       </c>
       <c r="D76">
-        <v>-0.000933143486318105</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.01148393841334866</v>
+      </c>
+      <c r="E76">
+        <v>-0.1156729035477016</v>
+      </c>
+      <c r="F76">
+        <v>-0.02322941726696939</v>
+      </c>
+      <c r="G76">
+        <v>0.04622188786683679</v>
+      </c>
+      <c r="H76">
+        <v>-0.008348511799988387</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.06825940675040219</v>
+        <v>0.06048707278119106</v>
       </c>
       <c r="C77">
-        <v>-0.05983152427390542</v>
+        <v>-0.07107748572542817</v>
       </c>
       <c r="D77">
-        <v>0.04913614056017267</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1309296785289238</v>
+      </c>
+      <c r="E77">
+        <v>-0.2179463844636037</v>
+      </c>
+      <c r="F77">
+        <v>0.2402478078711895</v>
+      </c>
+      <c r="G77">
+        <v>-0.223387992861206</v>
+      </c>
+      <c r="H77">
+        <v>0.4237631580087897</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.04355416065954852</v>
+        <v>0.0428787686742285</v>
       </c>
       <c r="C78">
-        <v>-0.05212688064857019</v>
+        <v>-0.06664228466101446</v>
       </c>
       <c r="D78">
-        <v>0.1175713680463071</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.132513380287956</v>
+      </c>
+      <c r="E78">
+        <v>-0.01529261619607697</v>
+      </c>
+      <c r="F78">
+        <v>-0.01098610406868778</v>
+      </c>
+      <c r="G78">
+        <v>0.01394757690053123</v>
+      </c>
+      <c r="H78">
+        <v>-0.02484412140769655</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.01570802372266034</v>
+        <v>0.04549408043018007</v>
       </c>
       <c r="C79">
-        <v>-0.0674651876615338</v>
+        <v>-0.09043422866057307</v>
       </c>
       <c r="D79">
-        <v>-0.001784158999701162</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.02233692208043553</v>
+      </c>
+      <c r="E79">
+        <v>-0.1952936372466838</v>
+      </c>
+      <c r="F79">
+        <v>-0.1332775474289747</v>
+      </c>
+      <c r="G79">
+        <v>0.7238126840898934</v>
+      </c>
+      <c r="H79">
+        <v>0.3449066755904564</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.03423071153960745</v>
+        <v>0.02614935450631935</v>
       </c>
       <c r="C80">
-        <v>-0.02848726460885597</v>
+        <v>-0.04407983895596736</v>
       </c>
       <c r="D80">
-        <v>0.02579692561788833</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.03288851781078905</v>
+      </c>
+      <c r="E80">
+        <v>-0.0197280831559357</v>
+      </c>
+      <c r="F80">
+        <v>0.03499486216631421</v>
+      </c>
+      <c r="G80">
+        <v>-0.04928780927326437</v>
+      </c>
+      <c r="H80">
+        <v>-0.02244544599987062</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1471633821456749</v>
+        <v>0.1269541187912943</v>
       </c>
       <c r="C81">
-        <v>-0.08856212873028133</v>
+        <v>-0.118030852926264</v>
       </c>
       <c r="D81">
-        <v>-0.04742372739265233</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.06424465212063905</v>
+      </c>
+      <c r="E81">
+        <v>-0.114887573738473</v>
+      </c>
+      <c r="F81">
+        <v>-0.02325359668306252</v>
+      </c>
+      <c r="G81">
+        <v>0.04799526928703314</v>
+      </c>
+      <c r="H81">
+        <v>0.0135561401776544</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.3133273016776592</v>
+        <v>0.2509665746267993</v>
       </c>
       <c r="C82">
-        <v>-0.2638890734473198</v>
+        <v>-0.2650875188963813</v>
       </c>
       <c r="D82">
-        <v>-0.2371830175900745</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2318580870958214</v>
+      </c>
+      <c r="E82">
+        <v>0.02130307704197653</v>
+      </c>
+      <c r="F82">
+        <v>-0.0365512753681961</v>
+      </c>
+      <c r="G82">
+        <v>0.07997147670714139</v>
+      </c>
+      <c r="H82">
+        <v>-0.4048612465455655</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.03002118186410844</v>
+        <v>0.02389295133942505</v>
       </c>
       <c r="C83">
-        <v>-0.04781511744859656</v>
+        <v>-0.05066731178862674</v>
       </c>
       <c r="D83">
-        <v>0.0487086870614367</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.05050378182995228</v>
+      </c>
+      <c r="E83">
+        <v>-0.01913727877972645</v>
+      </c>
+      <c r="F83">
+        <v>0.02159841088646191</v>
+      </c>
+      <c r="G83">
+        <v>-0.01775088687004493</v>
+      </c>
+      <c r="H83">
+        <v>-0.01456126345302439</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0002833569819037769</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.004790968644013243</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.01738034591542444</v>
+      </c>
+      <c r="E84">
+        <v>-0.01507563224658885</v>
+      </c>
+      <c r="F84">
+        <v>-0.008497558482115706</v>
+      </c>
+      <c r="G84">
+        <v>-0.007802104868224286</v>
+      </c>
+      <c r="H84">
+        <v>-0.003725760287474399</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.181574169257583</v>
+        <v>0.1587147905707212</v>
       </c>
       <c r="C85">
-        <v>-0.0919892914081252</v>
+        <v>-0.1338347852879114</v>
       </c>
       <c r="D85">
-        <v>-0.03598473633688208</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.06368212411230327</v>
+      </c>
+      <c r="E85">
+        <v>-0.04956213852462922</v>
+      </c>
+      <c r="F85">
+        <v>-0.03784557719699982</v>
+      </c>
+      <c r="G85">
+        <v>0.09389623758230024</v>
+      </c>
+      <c r="H85">
+        <v>0.07763562032941404</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01725386291606991</v>
+        <v>0.01907165154633957</v>
       </c>
       <c r="C86">
-        <v>-0.02369932869449585</v>
+        <v>-0.02257763793559098</v>
       </c>
       <c r="D86">
-        <v>0.1412045457406009</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.1276600191962332</v>
+      </c>
+      <c r="E86">
+        <v>-0.008248759268070298</v>
+      </c>
+      <c r="F86">
+        <v>0.01742599611846325</v>
+      </c>
+      <c r="G86">
+        <v>-0.002512313587935524</v>
+      </c>
+      <c r="H86">
+        <v>-0.04985182497121246</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.03054659855127678</v>
+        <v>0.03445899000821748</v>
       </c>
       <c r="C87">
-        <v>-0.001228116366608706</v>
+        <v>-0.02530791457928195</v>
       </c>
       <c r="D87">
-        <v>0.1014514879627693</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.1368259352341545</v>
+      </c>
+      <c r="E87">
+        <v>-0.08265858797744267</v>
+      </c>
+      <c r="F87">
+        <v>0.008209734493400029</v>
+      </c>
+      <c r="G87">
+        <v>-0.01987191309306672</v>
+      </c>
+      <c r="H87">
+        <v>-0.03318771989503434</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.07671069095632359</v>
+        <v>0.06758846675261503</v>
       </c>
       <c r="C88">
-        <v>-0.03715608763387805</v>
+        <v>-0.05714504095429208</v>
       </c>
       <c r="D88">
-        <v>0.0319341637512702</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.0162350662679263</v>
+      </c>
+      <c r="E88">
+        <v>-0.0223294132885281</v>
+      </c>
+      <c r="F88">
+        <v>-0.01025872668268022</v>
+      </c>
+      <c r="G88">
+        <v>0.002085439359081874</v>
+      </c>
+      <c r="H88">
+        <v>-0.04744131178367899</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1986355592779393</v>
+        <v>0.2812642835225609</v>
       </c>
       <c r="C89">
-        <v>0.3860528259378562</v>
+        <v>0.3548399917181749</v>
       </c>
       <c r="D89">
-        <v>-0.02290972122391038</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.001232670930844755</v>
+      </c>
+      <c r="E89">
+        <v>-0.04922516629626811</v>
+      </c>
+      <c r="F89">
+        <v>0.04700033169328783</v>
+      </c>
+      <c r="G89">
+        <v>0.04490730223607042</v>
+      </c>
+      <c r="H89">
+        <v>-0.08879477706165781</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1903335658230061</v>
+        <v>0.2423029564802927</v>
       </c>
       <c r="C90">
-        <v>0.3005510408862141</v>
+        <v>0.2534915093656965</v>
       </c>
       <c r="D90">
-        <v>-0.02729843145434975</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.01328082820118408</v>
+      </c>
+      <c r="E90">
+        <v>-0.04369101397588498</v>
+      </c>
+      <c r="F90">
+        <v>-0.01252659315640336</v>
+      </c>
+      <c r="G90">
+        <v>-0.05018064273664467</v>
+      </c>
+      <c r="H90">
+        <v>-0.0393035504045599</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1874832148612272</v>
+        <v>0.159512480855346</v>
       </c>
       <c r="C91">
-        <v>-0.135978011998383</v>
+        <v>-0.1586950023632218</v>
       </c>
       <c r="D91">
-        <v>-0.06283630215392737</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.08340095678581619</v>
+      </c>
+      <c r="E91">
+        <v>-0.1075773004212762</v>
+      </c>
+      <c r="F91">
+        <v>-0.0265188157930192</v>
+      </c>
+      <c r="G91">
+        <v>0.09275792670956026</v>
+      </c>
+      <c r="H91">
+        <v>0.08845613927521308</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1645791499019923</v>
+        <v>0.2234946572751328</v>
       </c>
       <c r="C92">
-        <v>0.2925269313961825</v>
+        <v>0.2699972721499317</v>
       </c>
       <c r="D92">
-        <v>0.01018782672791737</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.03157690167225016</v>
+      </c>
+      <c r="E92">
+        <v>-0.08840943432190934</v>
+      </c>
+      <c r="F92">
+        <v>0.01123284280574213</v>
+      </c>
+      <c r="G92">
+        <v>-0.01127388853260054</v>
+      </c>
+      <c r="H92">
+        <v>-0.03695489329433294</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2186746794202848</v>
+        <v>0.2669527200095655</v>
       </c>
       <c r="C93">
-        <v>0.3247309936290336</v>
+        <v>0.2662609636526483</v>
       </c>
       <c r="D93">
-        <v>-0.003649494670464212</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.00591242233356271</v>
+      </c>
+      <c r="E93">
+        <v>-0.01061360255066191</v>
+      </c>
+      <c r="F93">
+        <v>-0.02195183043424953</v>
+      </c>
+      <c r="G93">
+        <v>0.003147739992448362</v>
+      </c>
+      <c r="H93">
+        <v>0.00339423871453882</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.4004541224538365</v>
+        <v>0.3384458476888426</v>
       </c>
       <c r="C94">
-        <v>-0.2030038492125978</v>
+        <v>-0.2663119857465716</v>
       </c>
       <c r="D94">
-        <v>-0.4632352354928578</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4302387505890979</v>
+      </c>
+      <c r="E94">
+        <v>-0.0988501713669942</v>
+      </c>
+      <c r="F94">
+        <v>0.02279753648211708</v>
+      </c>
+      <c r="G94">
+        <v>-0.4797979876751554</v>
+      </c>
+      <c r="H94">
+        <v>0.1216086632358821</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.07688004193170542</v>
+        <v>0.06606794163819439</v>
       </c>
       <c r="C95">
-        <v>-0.06876239963577015</v>
+        <v>-0.06625708474947009</v>
       </c>
       <c r="D95">
-        <v>0.1262999261060404</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.09163489363793938</v>
+      </c>
+      <c r="E95">
+        <v>-0.01900802339913125</v>
+      </c>
+      <c r="F95">
+        <v>0.9167724680746455</v>
+      </c>
+      <c r="G95">
+        <v>0.1406468749150432</v>
+      </c>
+      <c r="H95">
+        <v>-0.009865591593262366</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +3187,22 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +3213,48 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1714330775580116</v>
+        <v>0.1606027850384954</v>
       </c>
       <c r="C98">
-        <v>-0.01399864250815061</v>
+        <v>-0.0672492964533364</v>
       </c>
       <c r="D98">
-        <v>0.1636747827520398</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1298368039749684</v>
+      </c>
+      <c r="E98">
+        <v>0.3182812668696181</v>
+      </c>
+      <c r="F98">
+        <v>-0.04485677037835339</v>
+      </c>
+      <c r="G98">
+        <v>0.04693012466212192</v>
+      </c>
+      <c r="H98">
+        <v>0.05679011285013802</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.006949970818211441</v>
+        <v>0.006237770674101283</v>
       </c>
       <c r="C101">
-        <v>-0.01850463124605772</v>
+        <v>-0.02259080991584178</v>
       </c>
       <c r="D101">
-        <v>0.06353751463285845</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.08142033588658265</v>
+      </c>
+      <c r="E101">
+        <v>-0.03214567726851279</v>
+      </c>
+      <c r="F101">
+        <v>-0.007929682999837664</v>
+      </c>
+      <c r="G101">
+        <v>0.006784960106547232</v>
+      </c>
+      <c r="H101">
+        <v>-0.1157428438700779</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1300073351568031</v>
+        <v>0.1064515210003748</v>
       </c>
       <c r="C102">
-        <v>-0.110107469393793</v>
+        <v>-0.1186276598744141</v>
       </c>
       <c r="D102">
-        <v>-0.03538786154599567</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.05613239320539815</v>
+      </c>
+      <c r="E102">
+        <v>-0.03243864809990774</v>
+      </c>
+      <c r="F102">
+        <v>0.02281793673835267</v>
+      </c>
+      <c r="G102">
+        <v>0.03429681698837921</v>
+      </c>
+      <c r="H102">
+        <v>-0.02416960101812682</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
